--- a/Consumo_electrico.xlsx
+++ b/Consumo_electrico.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{EE14820D-D8BF-4903-B822-8B14B83C08A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48CB726F-CAA0-4D76-AB99-8607133AF16D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22068" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PCB0" sheetId="1" r:id="rId1"/>
+    <sheet name="Electrico" sheetId="1" r:id="rId1"/>
+    <sheet name="Termico" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="86">
   <si>
     <t>5V</t>
   </si>
@@ -255,11 +257,62 @@
   <si>
     <t>D5</t>
   </si>
+  <si>
+    <t>ANÁLISIS TÉRMICO</t>
+  </si>
+  <si>
+    <t>V salida</t>
+  </si>
+  <si>
+    <t>Potencia (mW)</t>
+  </si>
+  <si>
+    <t>Sin calentamiento, toda la energía se transforma en luz</t>
+  </si>
+  <si>
+    <t>1V2</t>
+  </si>
+  <si>
+    <t>I entrada (mA)</t>
+  </si>
+  <si>
+    <t>0,22+0,5</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>D2-5</t>
+  </si>
+  <si>
+    <t>R15-18</t>
+  </si>
+  <si>
+    <t>680OHM</t>
+  </si>
+  <si>
+    <t>Peak gas sensor current supply</t>
+  </si>
+  <si>
+    <t>Heater consumption</t>
+  </si>
+  <si>
+    <t>Thermal Junction (ºC/W)</t>
+  </si>
+  <si>
+    <t>Calentamiento (ºC)</t>
+  </si>
+  <si>
+    <t>https://www.mouser.es/datasheet/3/70/1/Infineon-CY7C65213_USB-UART_LP_Bridge_Controller-DataSheet-v17_00-EN.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mouser.es/datasheet/3/118/1/LPC111X.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,16 +458,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -438,6 +488,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,7 +500,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -468,9 +527,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -508,9 +567,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,7 +604,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -580,7 +639,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -753,26 +812,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="83.85546875" customWidth="1"/>
+    <col min="8" max="8" width="83.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="38.4" x14ac:dyDescent="0.7">
       <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
@@ -782,7 +841,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
@@ -792,7 +851,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>35</v>
       </c>
@@ -802,42 +861,42 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>1.5</v>
       </c>
       <c r="G5">
@@ -845,19 +904,19 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4">
         <v>0.22</v>
       </c>
       <c r="G6">
@@ -865,17 +924,17 @@
         <v>8.1400000000000005E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="4">
         <f>(C8-1.95)/220*1000</f>
         <v>13.863636363636363</v>
       </c>
@@ -884,21 +943,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5">
+      <c r="E8" s="1"/>
+      <c r="F8" s="4">
         <f>F7</f>
         <v>13.863636363636363</v>
       </c>
@@ -910,33 +969,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="4"/>
       <c r="G9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5">
+      <c r="E10" s="1"/>
+      <c r="F10" s="4">
         <f>(3.3-1.95)/668*1000</f>
         <v>2.0209580838323351</v>
       </c>
@@ -948,31 +1007,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5">
+      <c r="E12" s="1"/>
+      <c r="F12" s="4">
         <f>F13</f>
         <v>2.1706586826347301</v>
       </c>
@@ -984,17 +1043,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="4">
         <f>(3.3-1.85)/668*1000</f>
         <v>2.1706586826347301</v>
       </c>
@@ -1003,31 +1062,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="4"/>
       <c r="G14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5">
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="4">
         <v>18</v>
       </c>
       <c r="G15">
@@ -1038,19 +1097,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8">
+      <c r="C16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="7">
         <v>7</v>
       </c>
       <c r="G16">
@@ -1061,7 +1122,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1069,7 +1130,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>38</v>
       </c>
@@ -1079,109 +1140,109 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>25</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20:G34" si="1">F20*3.3/1000</f>
+        <f>F20*3.3/1000</f>
         <v>8.2500000000000004E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5">
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="4">
         <v>0.22</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f>F21*3.3/1000</f>
         <v>7.2599999999999997E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5">
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="4">
         <v>15</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f>F22*3.3/1000</f>
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5">
+      <c r="E24" s="1"/>
+      <c r="F24" s="4">
         <f>(3.3-1.85)/680*1000</f>
         <v>2.1323529411764701</v>
       </c>
@@ -1193,29 +1254,29 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5">
+      <c r="E26" s="1"/>
+      <c r="F26" s="4">
         <f>(3.3-1.85)/680*1000</f>
         <v>2.1323529411764701</v>
       </c>
@@ -1224,53 +1285,53 @@
         <v>3.0919117647058808E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5">
+      <c r="E27" s="1"/>
+      <c r="F27" s="4">
         <f>(3.3-1.85)/680*1000</f>
         <v>2.1323529411764701</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:G28" si="2">F27*(3.3-1.85)/1000</f>
+        <f>F27*(3.3-1.85)/1000</f>
         <v>3.0919117647058808E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8">
+      <c r="E28" s="6"/>
+      <c r="F28" s="7">
         <f>(3.3-1.85)/680*1000</f>
         <v>2.1323529411764701</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f>F28*(3.3-1.85)/1000</f>
         <v>3.0919117647058808E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>44</v>
       </c>
@@ -1280,105 +1341,105 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10" t="s">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>1.25</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f>F32*3.3/1000</f>
         <v>4.1250000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>0.84899999999999998</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f>F33*3.3/1000</f>
         <v>2.8016999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>0.15</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
+        <f>F34*3.3/1000</f>
         <v>4.9499999999999989E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>100</v>
       </c>
       <c r="G35">
@@ -1386,21 +1447,21 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>20</v>
       </c>
       <c r="G36">
@@ -1408,21 +1469,21 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>0.04</v>
       </c>
       <c r="G37">
@@ -1430,37 +1491,37 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>64</v>
       </c>
@@ -1470,39 +1531,39 @@
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10" t="s">
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4" t="s">
+      <c r="C44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <v>118</v>
       </c>
       <c r="G44">
@@ -1510,13 +1571,13 @@
         <v>0.38939999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1529,4 +1590,829 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="38.4" x14ac:dyDescent="0.7">
+      <c r="A1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <f>(5-3.7)*1.5</f>
+        <v>1.9499999999999997</v>
+      </c>
+      <c r="F5" s="1">
+        <v>230</v>
+      </c>
+      <c r="G5" s="1">
+        <f>F5*E5/1000</f>
+        <v>0.44849999999999995</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <f>(5-3.3)*0.22</f>
+        <v>0.37400000000000005</v>
+      </c>
+      <c r="F6" s="1">
+        <v>163</v>
+      </c>
+      <c r="G6" s="1">
+        <f>F6*E6/1000</f>
+        <v>6.0962000000000009E-2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1">
+        <f>5-1.95</f>
+        <v>3.05</v>
+      </c>
+      <c r="D7" s="1">
+        <f>C7-220/1000*Electrico!F7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <f>(C7-D7)*Electrico!F7</f>
+        <v>42.284090909090907</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="4">
+        <f>(C8-1.95)/220*1000</f>
+        <v>13.863636363636363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="4">
+        <f>H7</f>
+        <v>13.863636363636363</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="4">
+        <f>(3.3-1.95)/668*1000</f>
+        <v>2.0209580838323351</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
+        <f>3.3-1.95</f>
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <f>(C11)-Electrico!F10*0.668</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <f>(C11-D11)*H10</f>
+        <v>2.728293413173652</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="4">
+        <f>H13</f>
+        <v>2.1706586826347301</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1">
+        <f>3.3-1.85</f>
+        <v>1.4499999999999997</v>
+      </c>
+      <c r="D13" s="1">
+        <f>C13-0.668*H12</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <f>(C13-D13)*H13</f>
+        <v>3.1474550898203582</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="4">
+        <f>(3.3-1.85)/668*1000</f>
+        <v>2.1706586826347301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <f>5*H15</f>
+        <v>90</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <f>3.3*H16</f>
+        <v>23.099999999999998</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <f>3.3*H20</f>
+        <v>82.5</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="1">
+        <f>(3.3-1.2)*H21</f>
+        <v>1.5119999999999998</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="4">
+        <f>0.22+0.5</f>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <f>3.3*H22</f>
+        <v>49.5</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="4">
+        <f>(3.3-1.85)/680*1000</f>
+        <v>2.1323529411764701</v>
+      </c>
+      <c r="I24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="1">
+        <f>3.3-1.85</f>
+        <v>1.4499999999999997</v>
+      </c>
+      <c r="D25" s="1">
+        <f>C25-H24*0.68</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <f>(C25-D25)*H24</f>
+        <v>3.0919117647058809</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <f>3.3*H32</f>
+        <v>4.125</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <f>3.3*H33</f>
+        <v>59.4</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="4">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <f>3.3*H34</f>
+        <v>0.49499999999999994</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <f>3.3*H35</f>
+        <v>330</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <f>5*H36</f>
+        <v>100</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <f>5*H37</f>
+        <v>0.2</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <v>350</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="4"/>
+      <c r="I38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="16">
+        <v>0</v>
+      </c>
+      <c r="E45" s="16">
+        <f>3.3*H45</f>
+        <v>389.4</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="17">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A18:H18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Consumo_electrico.xlsx
+++ b/Consumo_electrico.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{EE14820D-D8BF-4903-B822-8B14B83C08A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48CB726F-CAA0-4D76-AB99-8607133AF16D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22068" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Electrico" sheetId="1" r:id="rId1"/>
     <sheet name="Termico" sheetId="2" r:id="rId2"/>
+    <sheet name="Ordenado" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="87">
   <si>
     <t>5V</t>
   </si>
@@ -276,9 +276,6 @@
     <t>I entrada (mA)</t>
   </si>
   <si>
-    <t>0,22+0,5</t>
-  </si>
-  <si>
     <t>supply</t>
   </si>
   <si>
@@ -291,28 +288,34 @@
     <t>680OHM</t>
   </si>
   <si>
-    <t>Peak gas sensor current supply</t>
-  </si>
-  <si>
-    <t>Heater consumption</t>
+    <t>5VUP</t>
+  </si>
+  <si>
+    <t>Temperatura (ºC)</t>
   </si>
   <si>
     <t>Thermal Junction (ºC/W)</t>
   </si>
   <si>
-    <t>Calentamiento (ºC)</t>
-  </si>
-  <si>
-    <t>https://www.mouser.es/datasheet/3/70/1/Infineon-CY7C65213_USB-UART_LP_Bridge_Controller-DataSheet-v17_00-EN.pdf</t>
-  </si>
-  <si>
-    <t>https://www.mouser.es/datasheet/3/118/1/LPC111X.pdf</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Consumo (mW)</t>
+  </si>
+  <si>
+    <t>D2 +R15</t>
+  </si>
+  <si>
+    <t>Consumo(mW)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +359,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -491,6 +500,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,13 +533,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -527,9 +554,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -567,9 +594,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -604,7 +631,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,7 +666,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -812,56 +839,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="83.88671875" customWidth="1"/>
+    <col min="8" max="8" width="83.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="38.4" x14ac:dyDescent="0.7">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="39" x14ac:dyDescent="0.6">
+      <c r="A1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -882,7 +909,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -904,15 +931,15 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
+      <c r="C6" s="1">
+        <v>5</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -920,11 +947,11 @@
         <v>0.22</v>
       </c>
       <c r="G6">
-        <f>F6*3.7/1000</f>
-        <v>8.1400000000000005E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <f>F6*5/1000</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -943,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -969,7 +996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -981,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1007,7 +1034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1017,7 +1044,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1043,7 +1070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -1062,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1074,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -1097,7 +1124,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -1109,7 +1136,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7">
         <v>7</v>
@@ -1122,7 +1149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1130,17 +1157,17 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
@@ -1158,7 +1185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
@@ -1180,7 +1207,7 @@
         <v>8.2500000000000004E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -1200,7 +1227,7 @@
         <v>7.2599999999999997E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -1220,7 +1247,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1228,7 +1255,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
@@ -1254,7 +1281,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1262,7 +1289,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -1285,7 +1312,7 @@
         <v>3.0919117647058808E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
@@ -1308,7 +1335,7 @@
         <v>3.0919117647058808E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
@@ -1331,17 +1358,17 @@
         <v>3.0919117647058808E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
@@ -1381,7 +1408,7 @@
         <v>4.1250000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
@@ -1403,7 +1430,7 @@
         <v>2.8016999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -1425,7 +1452,7 @@
         <v>4.9499999999999989E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>53</v>
       </c>
@@ -1447,7 +1474,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
@@ -1469,7 +1496,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -1491,7 +1518,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>61</v>
       </c>
@@ -1505,7 +1532,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1513,7 +1540,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1521,17 +1548,17 @@
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>3</v>
       </c>
@@ -1549,7 +1576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
@@ -1571,7 +1598,7 @@
         <v>0.38939999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1593,63 +1620,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="38.4" x14ac:dyDescent="0.7">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" ht="39" x14ac:dyDescent="0.6">
+      <c r="A1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1666,16 +1693,16 @@
         <v>71</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1703,35 +1730,36 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="19">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <f>(5-3.3)*0.22</f>
-        <v>0.37400000000000005</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="D6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19">
+        <f>(5-3.3)*H6</f>
+        <v>850.37400000000014</v>
+      </c>
+      <c r="F6" s="19">
         <v>163</v>
       </c>
-      <c r="G6" s="1">
-        <f>F6*E6/1000</f>
-        <v>6.0962000000000009E-2</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="19">
+        <f t="shared" ref="G6:G16" si="0">F6*E6/1000</f>
+        <v>138.61096200000003</v>
+      </c>
+      <c r="H6" s="20">
+        <f>0.22+500</f>
+        <v>500.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1757,7 +1785,7 @@
         <v>13.863636363636363</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1779,7 +1807,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1789,7 +1817,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1811,7 +1839,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1832,7 +1860,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1854,7 +1882,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -1880,7 +1908,7 @@
         <v>2.1706586826347301</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1890,7 +1918,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -1908,14 +1936,14 @@
         <v>90</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -1932,27 +1960,30 @@
         <f>3.3*H16</f>
         <v>23.099999999999998</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="6"/>
+      <c r="F16" s="13">
+        <v>116.3</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="0"/>
+        <v>2.6865299999999999</v>
+      </c>
       <c r="H16" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
@@ -1968,13 +1999,17 @@
       <c r="E19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="H19" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
@@ -1991,37 +2026,48 @@
         <f>3.3*H20</f>
         <v>82.5</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="1">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1">
+        <f>F20*E20/1000</f>
+        <v>0.66</v>
+      </c>
       <c r="H20" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="19">
         <f>(3.3-1.2)*H21</f>
-        <v>1.5119999999999998</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="4">
-        <f>0.22+0.5</f>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1050.462</v>
+      </c>
+      <c r="F21" s="19">
+        <f>F6</f>
+        <v>163</v>
+      </c>
+      <c r="G21" s="19">
+        <f>F21*E21/1000</f>
+        <v>171.22530600000002</v>
+      </c>
+      <c r="H21" s="20">
+        <f>0.22+500</f>
+        <v>500.22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -2038,13 +2084,15 @@
         <f>3.3*H22</f>
         <v>49.5</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2054,9 +2102,9 @@
       <c r="G23" s="1"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>20</v>
@@ -2078,12 +2126,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C25" s="1">
         <f>3.3-1.85</f>
@@ -2101,7 +2149,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2111,7 +2159,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2121,7 +2169,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2131,19 +2179,19 @@
       <c r="G28" s="6"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>3</v>
       </c>
@@ -2159,13 +2207,17 @@
       <c r="E31" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="H31" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
@@ -2182,13 +2234,15 @@
         <f>3.3*H32</f>
         <v>4.125</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="4">
         <v>1.25</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
@@ -2201,20 +2255,16 @@
       <c r="D33" s="1">
         <v>0</v>
       </c>
-      <c r="E33" s="1">
-        <f>3.3*H33</f>
-        <v>59.4</v>
-      </c>
-      <c r="F33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="4">
-        <v>18</v>
-      </c>
-      <c r="I33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -2231,13 +2281,15 @@
         <f>3.3*H34</f>
         <v>0.49499999999999994</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1">
+        <v>108</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="4">
         <v>0.15</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>53</v>
       </c>
@@ -2254,13 +2306,15 @@
         <f>3.3*H35</f>
         <v>330</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
@@ -2268,7 +2322,7 @@
         <v>57</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -2277,13 +2331,15 @@
         <f>5*H36</f>
         <v>100</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -2300,13 +2356,15 @@
         <f>5*H37</f>
         <v>0.2</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="4">
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>61</v>
       </c>
@@ -2316,18 +2374,17 @@
       <c r="C38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1">
-        <v>350</v>
-      </c>
-      <c r="F38" s="1"/>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="4"/>
-      <c r="I38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2337,7 +2394,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2347,19 +2404,19 @@
       <c r="G40" s="6"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>3</v>
       </c>
@@ -2381,28 +2438,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="16">
-        <v>0</v>
-      </c>
-      <c r="E45" s="16">
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
         <f>3.3*H45</f>
         <v>389.4</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="17">
+      <c r="F45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="4">
         <v>118</v>
       </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2415,4 +2494,295 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="17">
+        <f>Termico!E6</f>
+        <v>850.37400000000014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <f>Termico!E5</f>
+        <v>1.9499999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <f>Termico!E15</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <f>Termico!E7</f>
+        <v>42.284090909090907</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <f>Termico!E38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <f>Termico!E21</f>
+        <v>1050.462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f>SUM(C2:C7)</f>
+        <v>2035.070090909091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17">
+        <f>Termico!E21</f>
+        <v>1050.462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <f>Termico!E16</f>
+        <v>23.099999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <f>Termico!E20</f>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <f>Termico!E22</f>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <f>Termico!E32</f>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <f>Termico!E33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <f>Termico!E34</f>
+        <v>0.49499999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23">
+        <f>Termico!E35</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
+        <f>Termico!E45</f>
+        <v>389.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f>SUM(C12:C24)</f>
+        <v>1929.5819999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="str">
+        <f>Termico!A36</f>
+        <v>M2</v>
+      </c>
+      <c r="B29" s="12" t="str">
+        <f>Termico!B36</f>
+        <v>GP2Y1010AU0F</v>
+      </c>
+      <c r="C29" s="12">
+        <f>Termico!E36</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>